--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf2-Sdc2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf2-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Sdc2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H2">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I2">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J2">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="N2">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="O2">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="P2">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="Q2">
-        <v>15.34145572543014</v>
+        <v>2.000771554995778</v>
       </c>
       <c r="R2">
-        <v>15.34145572543014</v>
+        <v>18.006943994962</v>
       </c>
       <c r="S2">
-        <v>0.02975469584631057</v>
+        <v>0.003348578725014392</v>
       </c>
       <c r="T2">
-        <v>0.02975469584631057</v>
+        <v>0.003348578725014392</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H3">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I3">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J3">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N3">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="O3">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="P3">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="Q3">
-        <v>325.6724484695131</v>
+        <v>39.40452652830923</v>
       </c>
       <c r="R3">
-        <v>325.6724484695131</v>
+        <v>354.6407387547831</v>
       </c>
       <c r="S3">
-        <v>0.6316404924775756</v>
+        <v>0.06594913790757084</v>
       </c>
       <c r="T3">
-        <v>0.6316404924775756</v>
+        <v>0.06594913790757083</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H4">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I4">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J4">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.3289419139119</v>
+        <v>16.09762433333333</v>
       </c>
       <c r="N4">
-        <v>14.3289419139119</v>
+        <v>48.292873</v>
       </c>
       <c r="O4">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793478</v>
       </c>
       <c r="P4">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793479</v>
       </c>
       <c r="Q4">
-        <v>105.3698224159385</v>
+        <v>14.32193295424678</v>
       </c>
       <c r="R4">
-        <v>105.3698224159385</v>
+        <v>128.897396588221</v>
       </c>
       <c r="S4">
-        <v>0.2043643754203189</v>
+        <v>0.02396981298135983</v>
       </c>
       <c r="T4">
-        <v>0.2043643754203189</v>
+        <v>0.02396981298135983</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H5">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I5">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J5">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="N5">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="O5">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="P5">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="Q5">
-        <v>0.5785370912858265</v>
+        <v>16.68316482716001</v>
       </c>
       <c r="R5">
-        <v>0.5785370912858265</v>
+        <v>150.14848344444</v>
       </c>
       <c r="S5">
-        <v>0.001122070518932866</v>
+        <v>0.02792167384959363</v>
       </c>
       <c r="T5">
-        <v>0.001122070518932866</v>
+        <v>0.02792167384959363</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H6">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I6">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J6">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N6">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="O6">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="P6">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="Q6">
-        <v>12.28133720955628</v>
+        <v>328.5693508419401</v>
       </c>
       <c r="R6">
-        <v>12.28133720955628</v>
+        <v>2957.124157577461</v>
       </c>
       <c r="S6">
-        <v>0.02381960746075664</v>
+        <v>0.5499080268179002</v>
       </c>
       <c r="T6">
-        <v>0.02381960746075664</v>
+        <v>0.5499080268179002</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H7">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I7">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J7">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.3289419139119</v>
+        <v>16.09762433333333</v>
       </c>
       <c r="N7">
-        <v>14.3289419139119</v>
+        <v>48.292873</v>
       </c>
       <c r="O7">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793478</v>
       </c>
       <c r="P7">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793479</v>
       </c>
       <c r="Q7">
-        <v>3.973570152718472</v>
+        <v>119.42151392678</v>
       </c>
       <c r="R7">
-        <v>3.973570152718472</v>
+        <v>1074.79362534102</v>
       </c>
       <c r="S7">
-        <v>0.007706724409609505</v>
+        <v>0.1998690654341441</v>
       </c>
       <c r="T7">
-        <v>0.007706724409609505</v>
+        <v>0.1998690654341442</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.862907975827176</v>
+        <v>0.298413</v>
       </c>
       <c r="H8">
-        <v>0.862907975827176</v>
+        <v>0.895239</v>
       </c>
       <c r="I8">
-        <v>0.101592033866496</v>
+        <v>0.031282997809377</v>
       </c>
       <c r="J8">
-        <v>0.101592033866496</v>
+        <v>0.03128299780937701</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="N8">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="O8">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="P8">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="Q8">
-        <v>1.800233869642517</v>
+        <v>0.6710816983260001</v>
       </c>
       <c r="R8">
-        <v>1.800233869642517</v>
+        <v>6.039735284934</v>
       </c>
       <c r="S8">
-        <v>0.00349154683897756</v>
+        <v>0.001123151662242475</v>
       </c>
       <c r="T8">
-        <v>0.00349154683897756</v>
+        <v>0.001123151662242475</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.862907975827176</v>
+        <v>0.298413</v>
       </c>
       <c r="H9">
-        <v>0.862907975827176</v>
+        <v>0.895239</v>
       </c>
       <c r="I9">
-        <v>0.101592033866496</v>
+        <v>0.031282997809377</v>
       </c>
       <c r="J9">
-        <v>0.101592033866496</v>
+        <v>0.03128299780937701</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N9">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="O9">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="P9">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="Q9">
-        <v>38.21583705204655</v>
+        <v>13.216729575309</v>
       </c>
       <c r="R9">
-        <v>38.21583705204655</v>
+        <v>118.950566177781</v>
       </c>
       <c r="S9">
-        <v>0.07411947264632406</v>
+        <v>0.02212009629967056</v>
       </c>
       <c r="T9">
-        <v>0.07411947264632406</v>
+        <v>0.02212009629967056</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,247 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.298413</v>
+      </c>
+      <c r="H10">
+        <v>0.895239</v>
+      </c>
+      <c r="I10">
+        <v>0.031282997809377</v>
+      </c>
+      <c r="J10">
+        <v>0.03128299780937701</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>16.09762433333333</v>
+      </c>
+      <c r="N10">
+        <v>48.292873</v>
+      </c>
+      <c r="O10">
+        <v>0.2570006204793478</v>
+      </c>
+      <c r="P10">
+        <v>0.2570006204793479</v>
+      </c>
+      <c r="Q10">
+        <v>4.803740370182999</v>
+      </c>
+      <c r="R10">
+        <v>43.233663331647</v>
+      </c>
+      <c r="S10">
+        <v>0.008039749847463968</v>
+      </c>
+      <c r="T10">
+        <v>0.008039749847463971</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.862907975827176</v>
-      </c>
-      <c r="H10">
-        <v>0.862907975827176</v>
-      </c>
-      <c r="I10">
-        <v>0.101592033866496</v>
-      </c>
-      <c r="J10">
-        <v>0.101592033866496</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>14.3289419139119</v>
-      </c>
-      <c r="N10">
-        <v>14.3289419139119</v>
-      </c>
-      <c r="O10">
-        <v>0.2360521142111228</v>
-      </c>
-      <c r="P10">
-        <v>0.2360521142111228</v>
-      </c>
-      <c r="Q10">
-        <v>12.3645582626789</v>
-      </c>
-      <c r="R10">
-        <v>12.3645582626789</v>
-      </c>
-      <c r="S10">
-        <v>0.02398101438119436</v>
-      </c>
-      <c r="T10">
-        <v>0.02398101438119436</v>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H11">
+        <v>2.797374</v>
+      </c>
+      <c r="I11">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J11">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.248835333333334</v>
+      </c>
+      <c r="N11">
+        <v>6.746506</v>
+      </c>
+      <c r="O11">
+        <v>0.03590294220158827</v>
+      </c>
+      <c r="P11">
+        <v>0.03590294220158827</v>
+      </c>
+      <c r="Q11">
+        <v>2.096944497249334</v>
+      </c>
+      <c r="R11">
+        <v>18.872500475244</v>
+      </c>
+      <c r="S11">
+        <v>0.003509537964737777</v>
+      </c>
+      <c r="T11">
+        <v>0.003509537964737777</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H12">
+        <v>2.797374</v>
+      </c>
+      <c r="I12">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J12">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>44.29005966666667</v>
+      </c>
+      <c r="N12">
+        <v>132.870179</v>
+      </c>
+      <c r="O12">
+        <v>0.7070964373190639</v>
+      </c>
+      <c r="P12">
+        <v>0.7070964373190639</v>
+      </c>
+      <c r="Q12">
+        <v>41.29862045666068</v>
+      </c>
+      <c r="R12">
+        <v>371.6875841099461</v>
+      </c>
+      <c r="S12">
+        <v>0.06911917629392224</v>
+      </c>
+      <c r="T12">
+        <v>0.06911917629392224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H13">
+        <v>2.797374</v>
+      </c>
+      <c r="I13">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J13">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>16.09762433333333</v>
+      </c>
+      <c r="N13">
+        <v>48.292873</v>
+      </c>
+      <c r="O13">
+        <v>0.2570006204793478</v>
+      </c>
+      <c r="P13">
+        <v>0.2570006204793479</v>
+      </c>
+      <c r="Q13">
+        <v>15.01035859061133</v>
+      </c>
+      <c r="R13">
+        <v>135.093227315502</v>
+      </c>
+      <c r="S13">
+        <v>0.02512199221637984</v>
+      </c>
+      <c r="T13">
+        <v>0.02512199221637985</v>
       </c>
     </row>
   </sheetData>
